--- a/TemperatureData/GilbrookRes02/0902_2024.xlsx
+++ b/TemperatureData/GilbrookRes02/0902_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/GilbrookRes2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\GilbrookRes02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A082D46D-CC67-44DF-BD97-2C72F093D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2398A-95F9-460F-9857-7C1D38FDC467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{C3585C52-4B09-42A5-B3A0-7FCEE5E2BEE0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C3585C52-4B09-42A5-B3A0-7FCEE5E2BEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="0902_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422128)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t># Complex ID: 09</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>#Logger was collected on 07/31/2024 at 12:21</t>
+  </si>
+  <si>
+    <t>#All data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE56B20-3BA6-420E-AF49-BDC6064AE567}">
-  <dimension ref="A1:I5871"/>
+  <dimension ref="A1:I5859"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A5830" workbookViewId="0">
+      <selection activeCell="A5871" sqref="A5860:XFD5871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82934,7 +82934,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5857">
         <v>5856</v>
       </c>
@@ -82948,7 +82948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5858">
         <v>5857</v>
       </c>
@@ -82962,7 +82962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5859">
         <v>5858</v>
       </c>
@@ -82974,162 +82974,6 @@
       </c>
       <c r="D5859">
         <v>128</v>
-      </c>
-    </row>
-    <row r="5860" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5860">
-        <v>5859</v>
-      </c>
-      <c r="B5860" s="1">
-        <v>45504.520833333336</v>
-      </c>
-      <c r="C5860">
-        <v>86.277000000000001</v>
-      </c>
-      <c r="D5860">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5861" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5861">
-        <v>5860</v>
-      </c>
-      <c r="B5861" s="1">
-        <v>45504.53125</v>
-      </c>
-      <c r="C5861">
-        <v>88.832999999999998</v>
-      </c>
-      <c r="D5861">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5862" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5862">
-        <v>5861</v>
-      </c>
-      <c r="B5862" s="1">
-        <v>45504.541666666664</v>
-      </c>
-      <c r="C5862">
-        <v>92.174000000000007</v>
-      </c>
-      <c r="D5862">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5863" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5863">
-        <v>5862</v>
-      </c>
-      <c r="B5863" s="1">
-        <v>45504.552083333336</v>
-      </c>
-      <c r="C5863">
-        <v>88.65</v>
-      </c>
-      <c r="D5863">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5864" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5864">
-        <v>5863</v>
-      </c>
-      <c r="B5864" s="1">
-        <v>45504.5625</v>
-      </c>
-      <c r="C5864">
-        <v>85.915000000000006</v>
-      </c>
-      <c r="D5864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5865" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5865">
-        <v>5864</v>
-      </c>
-      <c r="B5865" s="1">
-        <v>45504.572916666664</v>
-      </c>
-      <c r="C5865">
-        <v>80.734999999999999</v>
-      </c>
-      <c r="D5865">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5866" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5866">
-        <v>5865</v>
-      </c>
-      <c r="B5866" s="1">
-        <v>45504.576527777775</v>
-      </c>
-      <c r="E5866" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5867" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5867">
-        <v>5866</v>
-      </c>
-      <c r="B5867" s="1">
-        <v>45504.577453703707</v>
-      </c>
-      <c r="F5867" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5868" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5868">
-        <v>5867</v>
-      </c>
-      <c r="B5868" s="1">
-        <v>45504.577511574076</v>
-      </c>
-      <c r="E5868" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5869" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5869">
-        <v>5868</v>
-      </c>
-      <c r="B5869" s="1">
-        <v>45504.577615740738</v>
-      </c>
-      <c r="F5869" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5870" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5870">
-        <v>5869</v>
-      </c>
-      <c r="B5870" s="1">
-        <v>45504.577719907407</v>
-      </c>
-      <c r="E5870" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5870" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5871" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5871">
-        <v>5870</v>
-      </c>
-      <c r="B5871" s="1">
-        <v>45504.577870370369</v>
-      </c>
-      <c r="H5871" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5871" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -83139,31 +82983,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC9AD02-D9A6-40F1-8C2C-4A5A24059FA4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -83400,15 +83249,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -83419,14 +83259,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FF854CA-EB83-477E-B3BB-4769A595FAD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FF854CA-EB83-477E-B3BB-4769A595FAD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FBEC5C-FBEA-474D-BE34-CFE873F86471}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91CD3F6-F0D5-4B9F-ADE9-3F8507E2C391}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91CD3F6-F0D5-4B9F-ADE9-3F8507E2C391}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FBEC5C-FBEA-474D-BE34-CFE873F86471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>